--- a/data/Analysis/Amiris-Competes_analysis.xlsx
+++ b/data/Analysis/Amiris-Competes_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C021D727-2613-4032-B32B-AC1B473C7C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2EA8BB-6374-4998-A9A1-91DCC90956D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
+    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -215,7 +215,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -541,7 +541,7 @@
   <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,7 @@
     <col min="6" max="6" width="9.81640625" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="2.36328125" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
     <col min="11" max="12" width="14.6328125" customWidth="1"/>
     <col min="13" max="13" width="21.08984375" customWidth="1"/>
@@ -628,6 +628,10 @@
       <c r="H2" s="3">
         <v>35.999904000000001</v>
       </c>
+      <c r="I2" t="str">
+        <f>E2</f>
+        <v>Wind Onshore</v>
+      </c>
       <c r="J2" s="3">
         <v>35.996659363070002</v>
       </c>
@@ -676,6 +680,10 @@
       <c r="H3" s="4">
         <v>224.22680579643901</v>
       </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I5" si="0">E3</f>
+        <v>Wind Offshore</v>
+      </c>
       <c r="J3" s="3">
         <v>210.46012540672001</v>
       </c>
@@ -692,14 +700,14 @@
         <v>0.54</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O5" si="0">N3*8760</f>
+        <f t="shared" ref="O3:O5" si="1">N3*8760</f>
         <v>4730.4000000000005</v>
       </c>
       <c r="P3">
         <v>70000</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q5" si="1">P3*O3/1000000</f>
+        <f t="shared" ref="Q3:Q5" si="2">P3*O3/1000000</f>
         <v>331.12800000000004</v>
       </c>
       <c r="S3" s="1">
@@ -718,12 +726,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4" si="2">C5</f>
+        <f t="shared" ref="F4" si="3">C5</f>
         <v>35.49825113740178</v>
       </c>
       <c r="H4" s="3">
         <v>35.498216630999998</v>
       </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
       <c r="J4" s="3">
         <v>35.498216630999998</v>
       </c>
@@ -740,14 +752,14 @@
         <v>0.121</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059.96</v>
       </c>
       <c r="P4">
         <v>33283</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.278648679999996</v>
       </c>
       <c r="S4" s="1">
@@ -772,6 +784,10 @@
       <c r="H5" s="3">
         <v>8.6198399999999994E-2</v>
       </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>Hydro Conv.</v>
+      </c>
       <c r="J5" s="3">
         <v>8.6198399999999994E-2</v>
       </c>
@@ -788,14 +804,14 @@
         <v>0.24</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2102.4</v>
       </c>
       <c r="P5">
         <v>41</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6198400000000008E-2</v>
       </c>
       <c r="S5" s="1">
@@ -824,23 +840,23 @@
       <c r="C7" s="1">
         <v>5.8856819838007777</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>1</v>
       </c>
       <c r="J7" s="2">
-        <f>J2/$Q2</f>
+        <f t="shared" ref="J7:M10" si="4">J2/$Q2</f>
         <v>1.0071587475118073</v>
       </c>
       <c r="K7" s="2">
-        <f>K2/$Q2</f>
+        <f t="shared" si="4"/>
         <v>0.23613119345286057</v>
       </c>
       <c r="L7" s="2">
-        <f>L2/$Q2</f>
+        <f t="shared" si="4"/>
         <v>0.30097407244375057</v>
       </c>
       <c r="M7" s="2">
-        <f>M2/$Q2</f>
+        <f t="shared" si="4"/>
         <v>0.26455471982131934</v>
       </c>
       <c r="R7" s="2"/>
@@ -853,23 +869,23 @@
       <c r="C8" s="1">
         <v>9.367126946519691E-2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>2</v>
       </c>
       <c r="J8" s="2">
-        <f>J3/$Q3</f>
+        <f t="shared" si="4"/>
         <v>0.63558540928800944</v>
       </c>
       <c r="K8" s="2">
-        <f>K3/$Q3</f>
+        <f t="shared" si="4"/>
         <v>0.73572088364656862</v>
       </c>
       <c r="L8" s="2">
-        <f>L3/$Q3</f>
+        <f t="shared" si="4"/>
         <v>0.79541396363884953</v>
       </c>
       <c r="M8" s="2">
-        <f>M3/$Q3</f>
+        <f t="shared" si="4"/>
         <v>0.74001238793996871</v>
       </c>
     </row>
@@ -880,23 +896,23 @@
       <c r="C9" s="1">
         <v>3.9932852427918625E-7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="2">
-        <f>J4/$Q4</f>
+        <f t="shared" si="4"/>
         <v>1.0062238197667837</v>
       </c>
       <c r="K9" s="2">
-        <f>K4/$Q4</f>
+        <f t="shared" si="4"/>
         <v>0.84789029859563203</v>
       </c>
       <c r="L9" s="2">
-        <f>L4/$Q4</f>
+        <f t="shared" si="4"/>
         <v>0.82844892635410039</v>
       </c>
       <c r="M9" s="2">
-        <f>M4/$Q4</f>
+        <f t="shared" si="4"/>
         <v>0.77984870192442712</v>
       </c>
     </row>
@@ -907,23 +923,23 @@
       <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="2">
-        <f>J5/$Q5</f>
+        <f t="shared" si="4"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K10" s="2">
-        <f>K5/$Q5</f>
+        <f t="shared" si="4"/>
         <v>0.8291722163425852</v>
       </c>
       <c r="L10" s="2">
-        <f>L5/$Q5</f>
+        <f t="shared" si="4"/>
         <v>0.85718286974957647</v>
       </c>
       <c r="M10" s="2">
-        <f>M5/$Q5</f>
+        <f t="shared" si="4"/>
         <v>0.81112095919448035</v>
       </c>
     </row>
@@ -934,7 +950,7 @@
       <c r="C11" s="1">
         <v>7.3250663972493713E-3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="2">
@@ -942,15 +958,15 @@
         <v>282.04119980079003</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ref="K11:M11" si="3">SUM(K2:K5)</f>
+        <f t="shared" ref="K11:M11" si="5">SUM(K2:K5)</f>
         <v>282.0411998007898</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>303.44133549425192</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>282.07614503161074</v>
       </c>
     </row>
@@ -1033,11 +1049,12 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1">
-        <f t="shared" ref="H15" si="4">H13+H14</f>
+        <f t="shared" ref="H15" si="6">H13+H14</f>
         <v>375.10810810810813</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
@@ -1047,7 +1064,7 @@
         <v>1.571744486320245E-5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1072,7 @@
         <v>1.985035220748887E-5</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1084,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -1084,8 +1105,10 @@
       <c r="H21" s="1">
         <v>295.811125</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1102,8 +1125,10 @@
       <c r="H22" s="1">
         <v>45.962943000000003</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1123,8 +1148,10 @@
       <c r="H23" s="1">
         <v>35.178685999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1159,7 @@
         <v>162.21187632240139</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -1140,7 +1167,7 @@
         <v>46.531660999963869</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
     </row>
   </sheetData>
@@ -1149,7 +1176,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C21:C25 C29">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1163,7 +1190,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C17">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1177,7 +1204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:M10">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1191,13 +1218,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:M11">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:P23">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFA5028C-3024-46F7-9AD2-BB7C23F4AA1A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:K19">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,6 +1299,32 @@
           </x14:cfRule>
           <xm:sqref>J7:M10</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFA5028C-3024-46F7-9AD2-BB7C23F4AA1A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O20:P23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J16:K19</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/data/Analysis/Amiris-Competes_analysis.xlsx
+++ b/data/Analysis/Amiris-Competes_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2EA8BB-6374-4998-A9A1-91DCC90956D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A237C9-5517-4ECF-AE2B-80CFB1EEEC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="-16350" windowWidth="29040" windowHeight="15840" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Imports</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>RES production</t>
+  </si>
+  <si>
+    <t>NEW AMIRIS (all variable costs 1 )</t>
+  </si>
+  <si>
+    <t>NEW AMIRIS (also with higher hydrogen costs)</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -220,6 +226,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67946B48-5AED-4217-9C2A-ACC7EB0DF848}">
-  <dimension ref="B1:V29"/>
+  <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,15 +565,15 @@
     <col min="9" max="9" width="17.54296875" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
     <col min="11" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="21.08984375" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" customWidth="1"/>
+    <col min="13" max="15" width="21.08984375" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" customWidth="1"/>
+    <col min="20" max="20" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="94" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -590,28 +599,34 @@
         <v>40</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
       <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -644,26 +659,32 @@
       <c r="M2" s="3">
         <v>9.4553973301898093</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
+        <v>35.049171259489597</v>
+      </c>
+      <c r="O2" s="3">
+        <v>13.1592715231805</v>
+      </c>
+      <c r="P2">
         <v>0.34</v>
       </c>
-      <c r="O2">
-        <f>N2*8760</f>
+      <c r="Q2">
+        <f>P2*8760</f>
         <v>2978.4</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>12000</v>
       </c>
-      <c r="Q2" s="1">
-        <f>P2*O2/1000000</f>
+      <c r="S2" s="1">
+        <f>R2*Q2/1000000</f>
         <v>35.7408</v>
       </c>
-      <c r="S2" s="1">
-        <f>P2*N2</f>
+      <c r="U2" s="1">
+        <f>R2*P2</f>
         <v>4080.0000000000005</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -696,26 +717,32 @@
       <c r="M3" s="3">
         <v>245.038821993786</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
+        <v>101.033679668459</v>
+      </c>
+      <c r="O3" s="3">
+        <v>127.80161477418601</v>
+      </c>
+      <c r="P3">
         <v>0.54</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O5" si="1">N3*8760</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="1">P3*8760</f>
         <v>4730.4000000000005</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>70000</v>
       </c>
-      <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q5" si="2">P3*O3/1000000</f>
+      <c r="S3" s="1">
+        <f>R3*Q3/1000000</f>
         <v>331.12800000000004</v>
       </c>
-      <c r="S3" s="1">
-        <f>P3*N3</f>
+      <c r="U3" s="1">
+        <f>R3*P3</f>
         <v>37800</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -726,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4" si="3">C5</f>
+        <f t="shared" ref="F4" si="2">C5</f>
         <v>35.49825113740178</v>
       </c>
       <c r="H4" s="3">
@@ -748,26 +775,32 @@
       <c r="M4" s="3">
         <v>27.5120083787459</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
+        <v>35.498216630999998</v>
+      </c>
+      <c r="O4" s="3">
+        <v>17.0968394224066</v>
+      </c>
+      <c r="P4">
         <v>0.121</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>1059.96</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>33283</v>
       </c>
-      <c r="Q4" s="1">
-        <f t="shared" si="2"/>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S5" si="3">R4*Q4/1000000</f>
         <v>35.278648679999996</v>
       </c>
-      <c r="S4" s="1">
-        <f>P4*N4</f>
+      <c r="U4" s="1">
+        <f>R4*P4</f>
         <v>4027.2429999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -778,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3">
-        <f>C8</f>
+        <f>C9</f>
         <v>9.367126946519691E-2</v>
       </c>
       <c r="H5" s="3">
@@ -800,382 +833,445 @@
       <c r="M5" s="3">
         <v>6.9917328889029504E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>4.6454767799539901E-2</v>
+      </c>
+      <c r="P5">
         <v>0.24</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>2102.4</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>41</v>
       </c>
-      <c r="Q5" s="1">
-        <f t="shared" si="2"/>
+      <c r="S5" s="1">
+        <f t="shared" si="3"/>
         <v>8.6198400000000008E-2</v>
       </c>
-      <c r="S5" s="1">
-        <f>P5*N5</f>
+      <c r="U5" s="1">
+        <f>R5*P5</f>
         <v>9.84</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="C6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <f>SUM(N2:N5)</f>
+        <v>171.58106755894858</v>
+      </c>
+      <c r="O6" s="3">
+        <f>SUM(O2:O5)</f>
+        <v>158.10418048757262</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <v>5.2206815433406195</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>5.8856819838007777</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:M10" si="4">J2/$Q2</f>
+      <c r="J8" s="2">
+        <f>J2/$S2</f>
         <v>1.0071587475118073</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
+        <f>K2/$S2</f>
+        <v>0.23613119345286057</v>
+      </c>
+      <c r="L8" s="2">
+        <f>L2/$S2</f>
+        <v>0.30097407244375057</v>
+      </c>
+      <c r="M8" s="2">
+        <f>M2/$S2</f>
+        <v>0.26455471982131934</v>
+      </c>
+      <c r="N8" s="2">
+        <f>N2/$S2</f>
+        <v>0.9806487616250783</v>
+      </c>
+      <c r="O8" s="2">
+        <f>O2/$S2</f>
+        <v>0.3681862611687623</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9.367126946519691E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>J3/$S3</f>
+        <v>0.63558540928800944</v>
+      </c>
+      <c r="K9" s="2">
+        <f>K3/$S3</f>
+        <v>0.73572088364656862</v>
+      </c>
+      <c r="L9" s="2">
+        <f>L3/$S3</f>
+        <v>0.79541396363884953</v>
+      </c>
+      <c r="M9" s="2">
+        <f>M3/$S3</f>
+        <v>0.74001238793996871</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" ref="N9:O9" si="4">N3/$S3</f>
+        <v>0.30511971101344187</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="4"/>
-        <v>0.23613119345286057</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.30097407244375057</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="4"/>
-        <v>0.26455471982131934</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+        <v>0.38595834473130025</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.9932852427918625E-7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <f>J4/$S4</f>
+        <v>1.0062238197667837</v>
+      </c>
+      <c r="K10" s="2">
+        <f>K4/$S4</f>
+        <v>0.84789029859563203</v>
+      </c>
+      <c r="L10" s="2">
+        <f>L4/$S4</f>
+        <v>0.82844892635410039</v>
+      </c>
+      <c r="M10" s="2">
+        <f>M4/$S4</f>
+        <v>0.77984870192442712</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" ref="N10:O10" si="5">N4/$S4</f>
+        <v>1.0062238197667837</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.48462285439235259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>9.367126946519691E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.63558540928800944</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.73572088364656862</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.79541396363884953</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="4"/>
-        <v>0.74001238793996871</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.9932852427918625E-7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
-        <v>1.0062238197667837</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.84789029859563203</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.82844892635410039</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="4"/>
-        <v>0.77984870192442712</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="J11" s="2">
+        <f>J5/$S5</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K11" s="2">
+        <f>K5/$S5</f>
+        <v>0.8291722163425852</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L5/$S5</f>
+        <v>0.85718286974957647</v>
+      </c>
+      <c r="M11" s="2">
+        <f>M5/$S5</f>
+        <v>0.81112095919448035</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" ref="N11:O11" si="6">N5/$S5</f>
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.8291722163425852</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.85718286974957647</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="4"/>
-        <v>0.81112095919448035</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="O11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5389284232600593</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>7.3250663972493713E-3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J12" s="2">
         <f>SUM(J2:J5)</f>
         <v>282.04119980079003</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="K11:M11" si="5">SUM(K2:K5)</f>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12:M12" si="7">SUM(K2:K5)</f>
         <v>282.0411998007898</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="5"/>
+      <c r="L12" s="2">
+        <f t="shared" si="7"/>
         <v>303.44133549425192</v>
       </c>
-      <c r="M11" s="2">
-        <f t="shared" si="5"/>
+      <c r="M12" s="2">
+        <f t="shared" si="7"/>
         <v>282.07614503161074</v>
       </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>3.7719874016681842</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1">
-        <f>C21+C22+C23</f>
+      <c r="F14" s="1">
+        <f>C22+C23+C24</f>
         <v>164.89659960189826</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13">
-        <v>167</v>
-      </c>
-      <c r="L13">
-        <v>167</v>
-      </c>
-      <c r="M13" s="1">
-        <v>136.97548937168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>78.540326751314922</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1">
-        <f>C19</f>
-        <v>208.74353732236526</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
+        <v>167</v>
+      </c>
+      <c r="L14">
+        <v>167</v>
+      </c>
+      <c r="M14" s="1">
+        <v>136.97548937168</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>78.540326751314922</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1">
+        <f>C20</f>
+        <v>208.74353732236526</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1">
         <f xml:space="preserve"> 154/0.74</f>
         <v>208.1081081081081</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>212</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>212.44775275875401</v>
       </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>3.1599942061637543E-7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="1">
-        <f>F13+F14</f>
+      <c r="F16" s="1">
+        <f>F14+F15</f>
         <v>373.64013692426352</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <f t="shared" ref="H15" si="6">H13+H14</f>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
+        <f t="shared" ref="H16" si="8">H14+H15</f>
         <v>375.10810810810813</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>1.571744486320245E-5</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>1.985035220748887E-5</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1">
-        <f>C24+C25</f>
+      <c r="C20" s="1">
+        <f>C25+C26</f>
         <v>208.74353732236526</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>144.06824924253985</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="1">
-        <f>SUM(C3:C5) +C8</f>
+      <c r="F22" s="1">
+        <f>SUM(C3:C5) +C9</f>
         <v>400.3396486977731</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <v>295.811125</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>14.545551919076484</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="1">
-        <f>SUM(C6:C13)</f>
+      <c r="F23" s="1">
+        <f>SUM(C7:C14)</f>
         <v>14.979347664000553</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>45.962943000000003</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>6.2827984402819395</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="1">
-        <f>C2-C14</f>
+      <c r="F24" s="1">
+        <f>C2-C15</f>
         <v>-41.585184046146992</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>35.178685999999999</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>162.21187632240139</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>46.531660999963869</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="C29" s="1"/>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C21:C25 C29">
+  <conditionalFormatting sqref="C22:C26 C30">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -1189,7 +1285,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C17">
+  <conditionalFormatting sqref="C2:C18">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -1203,7 +1299,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:M10">
+  <conditionalFormatting sqref="J8:O11">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -1217,7 +1313,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11:M11">
+  <conditionalFormatting sqref="J12:O12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1227,7 +1323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:P23">
+  <conditionalFormatting sqref="Q21:R24">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1241,7 +1337,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:K19">
+  <conditionalFormatting sqref="J17:K20">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1271,7 +1367,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C21:C25 C29</xm:sqref>
+          <xm:sqref>C22:C26 C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AC2AE4D7-61A8-4430-9FAA-C20742811F27}">
@@ -1284,7 +1380,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C17</xm:sqref>
+          <xm:sqref>C2:C18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1655CA09-C0C8-457D-89DC-E5B31454A049}">
@@ -1297,7 +1393,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J7:M10</xm:sqref>
+          <xm:sqref>J8:O11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFA5028C-3024-46F7-9AD2-BB7C23F4AA1A}">
@@ -1310,7 +1406,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O20:P23</xm:sqref>
+          <xm:sqref>Q21:R24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}">
@@ -1323,7 +1419,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J16:K19</xm:sqref>
+          <xm:sqref>J17:K20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/Analysis/Amiris-Competes_analysis.xlsx
+++ b/data/Analysis/Amiris-Competes_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A237C9-5517-4ECF-AE2B-80CFB1EEEC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C36CB6-6970-4AED-B264-DC1658D0D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
   <si>
     <t>Imports</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>NEW AMIRIS (also with higher hydrogen costs)</t>
+  </si>
+  <si>
+    <t>sensitivity function 0.0003</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67946B48-5AED-4217-9C2A-ACC7EB0DF848}">
-  <dimension ref="B1:X30"/>
+  <dimension ref="B1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,15 +568,15 @@
     <col min="9" max="9" width="17.54296875" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
     <col min="11" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="15" width="21.08984375" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" customWidth="1"/>
-    <col min="17" max="17" width="7.7265625" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" customWidth="1"/>
-    <col min="20" max="20" width="13.1796875" customWidth="1"/>
+    <col min="13" max="16" width="21.08984375" customWidth="1"/>
+    <col min="17" max="17" width="10.08984375" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" customWidth="1"/>
+    <col min="19" max="19" width="10.54296875" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="94" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -604,29 +607,32 @@
       <c r="O1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="Y1" s="5"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -665,26 +671,29 @@
       <c r="O2" s="3">
         <v>13.1592715231805</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
+        <v>36.002903992</v>
+      </c>
+      <c r="Q2">
         <v>0.34</v>
       </c>
-      <c r="Q2">
-        <f>P2*8760</f>
+      <c r="R2">
+        <f>Q2*8760</f>
         <v>2978.4</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>12000</v>
       </c>
-      <c r="S2" s="1">
-        <f>R2*Q2/1000000</f>
+      <c r="T2" s="1">
+        <f>S2*R2/1000000</f>
         <v>35.7408</v>
       </c>
-      <c r="U2" s="1">
-        <f>R2*P2</f>
+      <c r="V2" s="1">
+        <f>S2*Q2</f>
         <v>4080.0000000000005</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -723,26 +732,29 @@
       <c r="O3" s="3">
         <v>127.80161477418601</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
+        <v>193.30812380304701</v>
+      </c>
+      <c r="Q3">
         <v>0.54</v>
       </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q5" si="1">P3*8760</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R5" si="1">Q3*8760</f>
         <v>4730.4000000000005</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>70000</v>
       </c>
-      <c r="S3" s="1">
-        <f>R3*Q3/1000000</f>
+      <c r="T3" s="1">
+        <f>S3*R3/1000000</f>
         <v>331.12800000000004</v>
       </c>
-      <c r="U3" s="1">
-        <f>R3*P3</f>
+      <c r="V3" s="1">
+        <f>S3*Q3</f>
         <v>37800</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -781,26 +793,29 @@
       <c r="O4" s="3">
         <v>17.0968394224066</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
+        <v>35.499283188</v>
+      </c>
+      <c r="Q4">
         <v>0.121</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <f t="shared" si="1"/>
         <v>1059.96</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>33283</v>
       </c>
-      <c r="S4" s="1">
-        <f t="shared" ref="S4:S5" si="3">R4*Q4/1000000</f>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T5" si="3">S4*R4/1000000</f>
         <v>35.278648679999996</v>
       </c>
-      <c r="U4" s="1">
-        <f>R4*P4</f>
+      <c r="V4" s="1">
+        <f>S4*Q4</f>
         <v>4027.2429999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -837,26 +852,29 @@
       <c r="O5" s="3">
         <v>4.6454767799539901E-2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
+        <v>8.6198399999999994E-2</v>
+      </c>
+      <c r="Q5">
         <v>0.24</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>2102.4</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>41</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <f t="shared" si="3"/>
         <v>8.6198400000000008E-2</v>
       </c>
-      <c r="U5" s="1">
-        <f>R5*P5</f>
+      <c r="V5" s="1">
+        <f>S5*Q5</f>
         <v>9.84</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="F6" s="3"/>
       <c r="H6" s="3"/>
@@ -872,10 +890,11 @@
         <f>SUM(O2:O5)</f>
         <v>158.10418048757262</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="2:24" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="3"/>
+      <c r="T6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -890,8 +909,9 @@
       <c r="M7" s="7"/>
       <c r="N7" s="6"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -902,33 +922,37 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f>J2/$S2</f>
+        <f t="shared" ref="J8:O8" si="4">J2/$T2</f>
         <v>1.0071587475118073</v>
       </c>
       <c r="K8" s="2">
-        <f>K2/$S2</f>
+        <f t="shared" si="4"/>
         <v>0.23613119345286057</v>
       </c>
       <c r="L8" s="2">
-        <f>L2/$S2</f>
+        <f t="shared" si="4"/>
         <v>0.30097407244375057</v>
       </c>
       <c r="M8" s="2">
-        <f>M2/$S2</f>
+        <f t="shared" si="4"/>
         <v>0.26455471982131934</v>
       </c>
       <c r="N8" s="2">
-        <f>N2/$S2</f>
+        <f t="shared" si="4"/>
         <v>0.9806487616250783</v>
       </c>
       <c r="O8" s="2">
-        <f>O2/$S2</f>
+        <f t="shared" si="4"/>
         <v>0.3681862611687623</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P8" s="2">
+        <f t="shared" ref="P8" si="5">P2/$T2</f>
+        <v>1.0073334674097949</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -939,31 +963,35 @@
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <f>J3/$S3</f>
+        <f t="shared" ref="J9:M11" si="6">J3/$T3</f>
         <v>0.63558540928800944</v>
       </c>
       <c r="K9" s="2">
-        <f>K3/$S3</f>
+        <f t="shared" si="6"/>
         <v>0.73572088364656862</v>
       </c>
       <c r="L9" s="2">
-        <f>L3/$S3</f>
+        <f t="shared" si="6"/>
         <v>0.79541396363884953</v>
       </c>
       <c r="M9" s="2">
-        <f>M3/$S3</f>
+        <f t="shared" si="6"/>
         <v>0.74001238793996871</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" ref="N9:O9" si="4">N3/$S3</f>
+        <f t="shared" ref="N9:O9" si="7">N3/$T3</f>
         <v>0.30511971101344187</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.38595834473130025</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P9" s="2">
+        <f t="shared" ref="P9" si="8">P3/$T3</f>
+        <v>0.58378670424442203</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -974,31 +1002,35 @@
         <v>3</v>
       </c>
       <c r="J10" s="2">
-        <f>J4/$S4</f>
+        <f t="shared" si="6"/>
         <v>1.0062238197667837</v>
       </c>
       <c r="K10" s="2">
-        <f>K4/$S4</f>
+        <f t="shared" si="6"/>
         <v>0.84789029859563203</v>
       </c>
       <c r="L10" s="2">
-        <f>L4/$S4</f>
+        <f t="shared" si="6"/>
         <v>0.82844892635410039</v>
       </c>
       <c r="M10" s="2">
-        <f>M4/$S4</f>
+        <f t="shared" si="6"/>
         <v>0.77984870192442712</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" ref="N10:O10" si="5">N4/$S4</f>
+        <f t="shared" ref="N10:O10" si="9">N4/$T4</f>
         <v>1.0062238197667837</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.48462285439235259</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P10" s="2">
+        <f t="shared" ref="P10" si="10">P4/$T4</f>
+        <v>1.0062540521322485</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1009,31 +1041,35 @@
         <v>6</v>
       </c>
       <c r="J11" s="2">
-        <f>J5/$S5</f>
+        <f t="shared" si="6"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="K11" s="2">
-        <f>K5/$S5</f>
+        <f t="shared" si="6"/>
         <v>0.8291722163425852</v>
       </c>
       <c r="L11" s="2">
-        <f>L5/$S5</f>
+        <f t="shared" si="6"/>
         <v>0.85718286974957647</v>
       </c>
       <c r="M11" s="2">
-        <f>M5/$S5</f>
+        <f t="shared" si="6"/>
         <v>0.81112095919448035</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:O11" si="6">N5/$S5</f>
+        <f t="shared" ref="N11:O11" si="11">N5/$T5</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.5389284232600593</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P11" s="2">
+        <f t="shared" ref="P11" si="12">P5/$T5</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1048,21 +1084,22 @@
         <v>282.04119980079003</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ref="K12:M12" si="7">SUM(K2:K5)</f>
+        <f t="shared" ref="K12:M12" si="13">SUM(K2:K5)</f>
         <v>282.0411998007898</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>303.44133549425192</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>282.07614503161074</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1107,7 @@
         <v>3.7719874016681842</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1135,9 @@
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1128,8 +1166,9 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1145,14 +1184,14 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <f t="shared" ref="H16" si="8">H14+H15</f>
+        <f t="shared" ref="H16" si="14">H14+H15</f>
         <v>375.10810810810813</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1199,7 @@
         <v>1.571744486320245E-5</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1168,7 +1207,7 @@
         <v>1.985035220748887E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1180,11 +1219,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="Q21" s="2"/>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -1201,10 +1240,10 @@
       <c r="H22" s="1">
         <v>295.811125</v>
       </c>
-      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1221,10 +1260,10 @@
       <c r="H23" s="1">
         <v>45.962943000000003</v>
       </c>
-      <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1244,10 +1283,10 @@
       <c r="H24" s="1">
         <v>35.178685999999999</v>
       </c>
-      <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1294,7 @@
         <v>162.21187632240139</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1302,7 @@
         <v>46.531660999963869</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
     </row>
   </sheetData>
@@ -1299,7 +1338,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J8:O11">
+  <conditionalFormatting sqref="J8:P11">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -1313,7 +1352,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12:O12">
+  <conditionalFormatting sqref="J12:P12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1323,7 +1362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:R24">
+  <conditionalFormatting sqref="R21:S24">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1393,7 +1432,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J8:O11</xm:sqref>
+          <xm:sqref>J8:P11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFA5028C-3024-46F7-9AD2-BB7C23F4AA1A}">
@@ -1406,7 +1445,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q21:R24</xm:sqref>
+          <xm:sqref>R21:S24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}">

--- a/data/Analysis/Amiris-Competes_analysis.xlsx
+++ b/data/Analysis/Amiris-Competes_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C36CB6-6970-4AED-B264-DC1658D0D308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10EC430-5CD7-42F4-A833-89296770AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Imports</t>
   </si>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,7 +553,7 @@
   <dimension ref="B1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,7 +942,7 @@
         <v>0.9806487616250783</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="4"/>
+        <f>O2/$T2</f>
         <v>0.3681862611687623</v>
       </c>
       <c r="P8" s="2">

--- a/data/Analysis/Amiris-Competes_analysis.xlsx
+++ b/data/Analysis/Amiris-Competes_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10EC430-5CD7-42F4-A833-89296770AEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E1143-DF36-4540-803A-32835327313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{3772C9F9-3F70-4642-9AE3-8682248B1B42}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,30 +553,30 @@
   <dimension ref="B1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="W8" sqref="W8:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" customWidth="1"/>
-    <col min="4" max="4" width="1.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" customWidth="1"/>
-    <col min="11" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="16" width="21.08984375" customWidth="1"/>
-    <col min="17" max="17" width="10.08984375" customWidth="1"/>
-    <col min="18" max="18" width="7.7265625" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="9.54296875" customWidth="1"/>
-    <col min="21" max="21" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="16" width="21.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.5703125" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="94" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -607,7 +607,7 @@
       <c r="O1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="Q1" s="5" t="s">
@@ -632,7 +632,7 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
         <v>4080.0000000000005</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -815,7 +815,7 @@
         <v>4027.2429999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -874,7 +874,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="3"/>
       <c r="H6" s="3"/>
@@ -894,7 +894,7 @@
       <c r="T6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="2:25" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:25" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -922,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:O8" si="4">J2/$T2</f>
+        <f t="shared" ref="J8:N8" si="4">J2/$T2</f>
         <v>1.0071587475118073</v>
       </c>
       <c r="K8" s="2">
@@ -952,7 +952,7 @@
       <c r="U8" s="2"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -991,7 +991,7 @@
         <v>0.58378670424442203</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1.0062540521322485</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>3.7719874016681842</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1.571744486320245E-5</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>1.985035220748887E-5</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -1219,11 +1219,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>162.21187632240139</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>46.531660999963869</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
   </sheetData>
@@ -1310,6 +1310,20 @@
     <mergeCell ref="J7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AC2AE4D7-61A8-4430-9FAA-C20742811F27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C22:C26 C30">
     <cfRule type="dataBar" priority="8">
       <dataBar>
@@ -1324,8 +1338,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C18">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="J17:K20">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1333,7 +1347,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC2AE4D7-61A8-4430-9FAA-C20742811F27}</x14:id>
+          <x14:id>{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1376,25 +1390,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:K20">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC2AE4D7-61A8-4430-9FAA-C20742811F27}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C18</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7B97B8D2-C5DF-47E1-A029-660189AC2DFD}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -1409,7 +1422,7 @@
           <xm:sqref>C22:C26 C30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AC2AE4D7-61A8-4430-9FAA-C20742811F27}">
+          <x14:cfRule type="dataBar" id="{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1419,7 +1432,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C18</xm:sqref>
+          <xm:sqref>J17:K20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1655CA09-C0C8-457D-89DC-E5B31454A049}">
@@ -1447,19 +1460,6 @@
           </x14:cfRule>
           <xm:sqref>R21:S24</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{00FA7D8A-7E86-4572-ACFB-F7FAA736930C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J17:K20</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
